--- a/氣象性能評估工具V2/data/obs/backup/2016-06-17_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-17_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-17 00:00:00</t>
+    <t>2016-06-17-00</t>
   </si>
   <si>
     <t>22.7</t>
@@ -148,7 +148,7 @@
     <t>26.9</t>
   </si>
   <si>
-    <t>2016-06-17 01:00:00</t>
+    <t>2016-06-17-01</t>
   </si>
   <si>
     <t>22.1</t>
@@ -193,7 +193,7 @@
     <t>28.8</t>
   </si>
   <si>
-    <t>2016-06-17 02:00:00</t>
+    <t>2016-06-17-02</t>
   </si>
   <si>
     <t>25.9</t>
@@ -226,7 +226,7 @@
     <t>26.3</t>
   </si>
   <si>
-    <t>2016-06-17 03:00:00</t>
+    <t>2016-06-17-03</t>
   </si>
   <si>
     <t>23.7</t>
@@ -253,7 +253,7 @@
     <t>26.0</t>
   </si>
   <si>
-    <t>2016-06-17 04:00:00</t>
+    <t>2016-06-17-04</t>
   </si>
   <si>
     <t>21.2</t>
@@ -277,7 +277,7 @@
     <t>27.6</t>
   </si>
   <si>
-    <t>2016-06-17 05:00:00</t>
+    <t>2016-06-17-05</t>
   </si>
   <si>
     <t>21.4</t>
@@ -295,7 +295,7 @@
     <t>7.4</t>
   </si>
   <si>
-    <t>2016-06-17 06:00:00</t>
+    <t>2016-06-17-06</t>
   </si>
   <si>
     <t>23.2</t>
@@ -325,7 +325,7 @@
     <t>29.9</t>
   </si>
   <si>
-    <t>2016-06-17 07:00:00</t>
+    <t>2016-06-17-07</t>
   </si>
   <si>
     <t>24.8</t>
@@ -376,7 +376,7 @@
     <t>30.2</t>
   </si>
   <si>
-    <t>2016-06-17 08:00:00</t>
+    <t>2016-06-17-08</t>
   </si>
   <si>
     <t>30.8</t>
@@ -406,7 +406,7 @@
     <t>31.6</t>
   </si>
   <si>
-    <t>2016-06-17 09:00:00</t>
+    <t>2016-06-17-09</t>
   </si>
   <si>
     <t>33.8</t>
@@ -433,7 +433,7 @@
     <t>32.2</t>
   </si>
   <si>
-    <t>2016-06-17 10:00:00</t>
+    <t>2016-06-17-10</t>
   </si>
   <si>
     <t>27.1</t>
@@ -463,7 +463,7 @@
     <t>32.4</t>
   </si>
   <si>
-    <t>2016-06-17 11:00:00</t>
+    <t>2016-06-17-11</t>
   </si>
   <si>
     <t>23.8</t>
@@ -493,7 +493,7 @@
     <t>33.3</t>
   </si>
   <si>
-    <t>2016-06-17 12:00:00</t>
+    <t>2016-06-17-12</t>
   </si>
   <si>
     <t>33.4</t>
@@ -511,7 +511,7 @@
     <t>36.7</t>
   </si>
   <si>
-    <t>2016-06-17 13:00:00</t>
+    <t>2016-06-17-13</t>
   </si>
   <si>
     <t>23.5</t>
@@ -535,7 +535,7 @@
     <t>31.9</t>
   </si>
   <si>
-    <t>2016-06-17 14:00:00</t>
+    <t>2016-06-17-14</t>
   </si>
   <si>
     <t>22.3</t>
@@ -550,7 +550,7 @@
     <t>34.6</t>
   </si>
   <si>
-    <t>2016-06-17 15:00:00</t>
+    <t>2016-06-17-15</t>
   </si>
   <si>
     <t>22.2</t>
@@ -565,7 +565,7 @@
     <t>11.7</t>
   </si>
   <si>
-    <t>2016-06-17 16:00:00</t>
+    <t>2016-06-17-16</t>
   </si>
   <si>
     <t>21.5</t>
@@ -583,7 +583,7 @@
     <t>9.0</t>
   </si>
   <si>
-    <t>2016-06-17 17:00:00</t>
+    <t>2016-06-17-17</t>
   </si>
   <si>
     <t>7.9</t>
@@ -592,7 +592,7 @@
     <t>29.2</t>
   </si>
   <si>
-    <t>2016-06-17 18:00:00</t>
+    <t>2016-06-17-18</t>
   </si>
   <si>
     <t>20.4</t>
@@ -616,7 +616,7 @@
     <t>6.5</t>
   </si>
   <si>
-    <t>2016-06-17 19:00:00</t>
+    <t>2016-06-17-19</t>
   </si>
   <si>
     <t>25.0</t>
@@ -628,7 +628,7 @@
     <t>6.9</t>
   </si>
   <si>
-    <t>2016-06-17 20:00:00</t>
+    <t>2016-06-17-20</t>
   </si>
   <si>
     <t>14.5</t>
@@ -640,13 +640,13 @@
     <t>29.6</t>
   </si>
   <si>
-    <t>2016-06-17 21:00:00</t>
+    <t>2016-06-17-21</t>
   </si>
   <si>
     <t>14.3</t>
   </si>
   <si>
-    <t>2016-06-17 22:00:00</t>
+    <t>2016-06-17-22</t>
   </si>
   <si>
     <t>20.6</t>
@@ -661,7 +661,7 @@
     <t>21.8</t>
   </si>
   <si>
-    <t>2016-06-17 23:00:00</t>
+    <t>2016-06-17-23</t>
   </si>
   <si>
     <t>26.6</t>
